--- a/scm/配置管理规范.xlsx
+++ b/scm/配置管理规范.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="版本发布Checklist" sheetId="1" r:id="rId1"/>
     <sheet name="配置管理角色与职责" sheetId="2" r:id="rId2"/>
     <sheet name="术语与定义" sheetId="3" r:id="rId3"/>
-    <sheet name="合并规则" sheetId="4" r:id="rId4"/>
+    <sheet name="配置管理基本原则" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="136">
   <si>
     <t>配置项名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,9 +70,6 @@
     <t>计划</t>
   </si>
   <si>
-    <t>SCM</t>
-  </si>
-  <si>
     <t>产品经理</t>
   </si>
   <si>
@@ -179,33 +176,12 @@
     <t>备注</t>
   </si>
   <si>
-    <t>配置库管理</t>
-  </si>
-  <si>
     <t>配置库创建与目录结构管理</t>
   </si>
   <si>
-    <t>配置库检查</t>
-  </si>
-  <si>
-    <t>规范定义</t>
-  </si>
-  <si>
-    <t>配置库相关原则定义</t>
-  </si>
-  <si>
-    <t>负责配置库权限分配、备份、分支、基线与合并等原则定义</t>
-  </si>
-  <si>
     <t>负责研发部配置管理规范的定义与更新</t>
   </si>
   <si>
-    <t>其他研发管理规范的定义与更新</t>
-  </si>
-  <si>
-    <t>负责研发部其他管理规范的定义与更新</t>
-  </si>
-  <si>
     <t>培训支持</t>
   </si>
   <si>
@@ -221,28 +197,10 @@
     <t>组织配置管理相关培训与分享</t>
   </si>
   <si>
-    <t>项目管理</t>
-  </si>
-  <si>
     <t>常用系统日常管理</t>
   </si>
   <si>
-    <t>月度项目信息收集</t>
-  </si>
-  <si>
-    <t>配置审计</t>
-  </si>
-  <si>
-    <t>季度配置审计</t>
-  </si>
-  <si>
-    <t>每季度进行配置审计与不符合项跟进</t>
-  </si>
-  <si>
     <t>版本管理</t>
-  </si>
-  <si>
-    <t>在版本发布时对需要受控的配置项进行检查</t>
   </si>
   <si>
     <t>术语</t>
@@ -470,17 +428,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开发人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原则说明</t>
+  </si>
+  <si>
+    <t>版本冲突合并原则</t>
+  </si>
+  <si>
+    <t>由项目组自行安排人员进行合并操作</t>
+  </si>
+  <si>
+    <t>版本发布通知原则</t>
+  </si>
+  <si>
+    <t>Tag生成时机原则</t>
+  </si>
+  <si>
+    <t>Branch拉取时机原则</t>
+  </si>
+  <si>
+    <t>拉取分支时，不要从trunk中拉取，要从tag中拉取</t>
+  </si>
+  <si>
+    <t>1)分支向主干合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)低版本向高版本合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)项目上线时生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)使用主干代码作为打分支的源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)项目上线后，需要修改线上BUG时拉取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)项目上线后，需要开发计划外的新需求时拉取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)版本发布前，要通知项目相关人员本次版本发布内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)版本发布后，需通知项目相关人员本次版本发布结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生成Tag时，确保所有代码已提交
+生成Tag操作由CM进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置管理规范的定义与更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>根据配置库申请表建立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -490,76 +581,33 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，</t>
+      <t>目录结构并管理</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级目录结构并管理</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SVN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>帐号管理与权限分配</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SVN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>账号创建、密码修改、权限变更等</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>配置管理员
+CM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置库管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本发布时对需要受控的配置项进行检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本发布后及时进行配置项归档形成基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -572,7 +620,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Wiki/Jira/Crucible/Jenkins/Sonar/Scrumework</t>
+      <t>Wiki/Jira/Crucible/Jenkins/Sonar</t>
     </r>
     <r>
       <rPr>
@@ -584,33 +632,99 @@
       </rPr>
       <t>等）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型切图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量保证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置库帐号管理与权限分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置库账号创建、密码修改、权限变更等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置管理计划的创建，配置状态报告更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布配置项检查（如：源码、Sql、发布安装包等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基线的生成与基线库的维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不定期进行配置库检查（检查注释完整性，配置库使用是否符合相关规范）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置库检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>确认</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Checklist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>发布配置项检查（源码、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tag</t>
+      <t>JIRA</t>
     </r>
     <r>
       <rPr>
@@ -620,274 +734,31 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、成果）</t>
+      <t>与禅道使用指导</t>
     </r>
-  </si>
-  <si>
-    <t>配置管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基线（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）生成</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不定期进行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SVN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gitlab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置库检查（检查注释完整性，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Branch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是否符合相关规范）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在版本发布后及时对配置项进行归档形成基线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在版本发布后将需要受控的配置项清单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Checklist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>svn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对应目录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确保配置库环境正常运行，按要求备份配置库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原则说明</t>
-  </si>
-  <si>
-    <t>版本冲突合并原则</t>
-  </si>
-  <si>
-    <t>由项目组自行安排人员进行合并操作</t>
-  </si>
-  <si>
-    <t>版本发布通知原则</t>
-  </si>
-  <si>
-    <t>Tag生成时机原则</t>
-  </si>
-  <si>
-    <t>Branch拉取时机原则</t>
-  </si>
-  <si>
-    <t>拉取分支时，不要从trunk中拉取，要从tag中拉取</t>
-  </si>
-  <si>
-    <t>1)分支向主干合并</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)低版本向高版本合并</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)项目上线时生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)使用主干代码作为打分支的源代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)项目上线后，需要修改线上BUG时拉取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)项目上线后，需要开发计划外的新需求时拉取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)版本发布前，要通知项目相关人员本次版本发布内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)版本发布后，需通知项目相关人员本次版本发布结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在生成Tag时，确保所有代码已提交
-生成Tag操作由CM进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置管理规范的定义与更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月与项目经理沟通项目情况进行项目信息收集与风险项跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更管理工具JIRA和禅道使用指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据项目信息创建配置管理计划，并及时更新配置状态报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,10 +871,49 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1012,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1022,75 +932,87 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,6 +1023,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1149,7 +1074,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1184,7 +1109,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1395,13 +1320,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="5.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
@@ -1409,311 +1334,311 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="29">
+        <v>14</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="29">
+        <v>15</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="29">
+        <v>16</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E15" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="29">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="29">
+        <v>18</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="29">
+        <v>19</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>14</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>15</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <v>19</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E18" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>20</v>
       </c>
@@ -1726,7 +1651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>21</v>
       </c>
@@ -1739,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>22</v>
       </c>
@@ -1752,7 +1677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -1765,7 +1690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -1778,7 +1703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -1791,7 +1716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -1804,7 +1729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>26</v>
       </c>
@@ -1817,7 +1742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>27</v>
       </c>
@@ -1830,7 +1755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -1843,7 +1768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -1856,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -1869,7 +1794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>31</v>
       </c>
@@ -1882,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -1895,7 +1820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>33</v>
       </c>
@@ -1908,7 +1833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -1921,7 +1846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -1934,7 +1859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -1947,7 +1872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -1960,7 +1885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -1973,7 +1898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -1986,7 +1911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -1999,7 +1924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -2012,7 +1937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -2025,7 +1950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -2038,7 +1963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -2051,7 +1976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -2064,7 +1989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -2077,7 +2002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -2090,7 +2015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -2103,7 +2028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -2116,7 +2041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -2129,7 +2054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -2142,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -2155,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>53</v>
       </c>
@@ -2168,7 +2093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>54</v>
       </c>
@@ -2181,7 +2106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>55</v>
       </c>
@@ -2194,7 +2119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>56</v>
       </c>
@@ -2207,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>57</v>
       </c>
@@ -2220,7 +2145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>58</v>
       </c>
@@ -2233,7 +2158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>59</v>
       </c>
@@ -2246,7 +2171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>60</v>
       </c>
@@ -2259,7 +2184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>61</v>
       </c>
@@ -2272,7 +2197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>62</v>
       </c>
@@ -2285,7 +2210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>63</v>
       </c>
@@ -2298,7 +2223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>64</v>
       </c>
@@ -2311,7 +2236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>65</v>
       </c>
@@ -2324,7 +2249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>66</v>
       </c>
@@ -2337,7 +2262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>67</v>
       </c>
@@ -2350,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>68</v>
       </c>
@@ -2363,7 +2288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>69</v>
       </c>
@@ -2376,7 +2301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>70</v>
       </c>
@@ -2389,7 +2314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>71</v>
       </c>
@@ -2402,7 +2327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>72</v>
       </c>
@@ -2415,7 +2340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>73</v>
       </c>
@@ -2428,7 +2353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>74</v>
       </c>
@@ -2441,7 +2366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>75</v>
       </c>
@@ -2454,7 +2379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>76</v>
       </c>
@@ -2467,7 +2392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>77</v>
       </c>
@@ -2480,7 +2405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>78</v>
       </c>
@@ -2493,7 +2418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>79</v>
       </c>
@@ -2506,7 +2431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>80</v>
       </c>
@@ -2519,7 +2444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>81</v>
       </c>
@@ -2532,7 +2457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>82</v>
       </c>
@@ -2545,7 +2470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>83</v>
       </c>
@@ -2558,7 +2483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>84</v>
       </c>
@@ -2571,7 +2496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -2584,7 +2509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>86</v>
       </c>
@@ -2597,7 +2522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -2610,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>88</v>
       </c>
@@ -2623,7 +2548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -2636,7 +2561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>90</v>
       </c>
@@ -2649,7 +2574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>91</v>
       </c>
@@ -2662,7 +2587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>92</v>
       </c>
@@ -2675,7 +2600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>93</v>
       </c>
@@ -2688,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>94</v>
       </c>
@@ -2701,7 +2626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -2714,7 +2639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>96</v>
       </c>
@@ -2727,7 +2652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>97</v>
       </c>
@@ -2740,7 +2665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>98</v>
       </c>
@@ -2753,7 +2678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>99</v>
       </c>
@@ -2766,7 +2691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>100</v>
       </c>
@@ -2779,7 +2704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>101</v>
       </c>
@@ -2792,7 +2717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>102</v>
       </c>
@@ -2805,7 +2730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>103</v>
       </c>
@@ -2818,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>104</v>
       </c>
@@ -2831,7 +2756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>105</v>
       </c>
@@ -2844,7 +2769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>106</v>
       </c>
@@ -2857,7 +2782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>107</v>
       </c>
@@ -2870,7 +2795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>108</v>
       </c>
@@ -2883,7 +2808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>109</v>
       </c>
@@ -2896,7 +2821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>110</v>
       </c>
@@ -2909,7 +2834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>111</v>
       </c>
@@ -2922,7 +2847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>112</v>
       </c>
@@ -2935,7 +2860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>113</v>
       </c>
@@ -2948,7 +2873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>114</v>
       </c>
@@ -2961,7 +2886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>115</v>
       </c>
@@ -2974,7 +2899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>116</v>
       </c>
@@ -2987,7 +2912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>117</v>
       </c>
@@ -3000,7 +2925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>118</v>
       </c>
@@ -3013,7 +2938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>119</v>
       </c>
@@ -3026,7 +2951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>120</v>
       </c>
@@ -3039,7 +2964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>121</v>
       </c>
@@ -3052,7 +2977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>122</v>
       </c>
@@ -3065,7 +2990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>123</v>
       </c>
@@ -3078,7 +3003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>124</v>
       </c>
@@ -3091,7 +3016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>125</v>
       </c>
@@ -3104,7 +3029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>126</v>
       </c>
@@ -3117,7 +3042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>127</v>
       </c>
@@ -3130,7 +3055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>128</v>
       </c>
@@ -3143,7 +3068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>129</v>
       </c>
@@ -3156,7 +3081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>130</v>
       </c>
@@ -3169,7 +3094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>131</v>
       </c>
@@ -3182,7 +3107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
         <v>132</v>
       </c>
@@ -3195,7 +3120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>133</v>
       </c>
@@ -3208,7 +3133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4">
         <v>134</v>
       </c>
@@ -3221,7 +3146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4">
         <v>135</v>
       </c>
@@ -3234,7 +3159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
         <v>136</v>
       </c>
@@ -3245,7 +3170,7 @@
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4">
         <v>137</v>
       </c>
@@ -3256,7 +3181,7 @@
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4">
         <v>138</v>
       </c>
@@ -3267,7 +3192,7 @@
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4">
         <v>139</v>
       </c>
@@ -3278,7 +3203,7 @@
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4">
         <v>140</v>
       </c>
@@ -3289,7 +3214,7 @@
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4">
         <v>141</v>
       </c>
@@ -3300,7 +3225,7 @@
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4">
         <v>142</v>
       </c>
@@ -3311,7 +3236,7 @@
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4">
         <v>143</v>
       </c>
@@ -3320,7 +3245,7 @@
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4">
         <v>144</v>
       </c>
@@ -3329,7 +3254,7 @@
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4">
         <v>145</v>
       </c>
@@ -3338,7 +3263,7 @@
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4">
         <v>146</v>
       </c>
@@ -3347,20 +3272,23 @@
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E135">
       <formula1>"已入库（√）,未提供（×）,　"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C142">
       <formula1>"立项,计划,需求,设计,实现,测试,交付,验收,　"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
       <formula1>"项目经理,产品经理,SCM,测试人员,设计人员,开发人员,运维人员,　"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18">
+      <formula1>"项目经理,产品经理,CM,测试人员,设计人员,开发人员,运维人员,　"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3370,251 +3298,334 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="46.875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="8" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="25" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="D2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B14" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="H14" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12" t="s">
+      <c r="B16" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
+      <c r="B20" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3623,53 +3634,53 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="53" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>73</v>
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3683,134 +3694,134 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="27" customWidth="1"/>
+    <col min="1" max="1" width="4.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="36.875" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="26">
+      <c r="B1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="26">
+      <c r="B2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="26">
+      <c r="B4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="26">
+      <c r="B6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
+      <c r="B8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
